--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N2">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O2">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P2">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q2">
-        <v>0.000425536882</v>
+        <v>1.247891166666667E-05</v>
       </c>
       <c r="R2">
-        <v>0.003829831937999999</v>
+        <v>0.000112310205</v>
       </c>
       <c r="S2">
-        <v>4.22755147725629E-05</v>
+        <v>1.271651302719351E-06</v>
       </c>
       <c r="T2">
-        <v>4.227551477256289E-05</v>
+        <v>1.271651302719351E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H3">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.465328</v>
       </c>
       <c r="O3">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P3">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q3">
-        <v>0.272595816752</v>
+        <v>0.07771581495999999</v>
       </c>
       <c r="R3">
-        <v>2.453362350768</v>
+        <v>0.6994423346399999</v>
       </c>
       <c r="S3">
-        <v>0.02708138581049721</v>
+        <v>0.007919554202772759</v>
       </c>
       <c r="T3">
-        <v>0.02708138581049721</v>
+        <v>0.007919554202772757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H4">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.727487</v>
       </c>
       <c r="O4">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P4">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q4">
-        <v>0.06484782174966666</v>
+        <v>0.01848781604833333</v>
       </c>
       <c r="R4">
-        <v>0.583630395747</v>
+        <v>0.166390344435</v>
       </c>
       <c r="S4">
-        <v>0.006442391158815134</v>
+        <v>0.001883982833623082</v>
       </c>
       <c r="T4">
-        <v>0.006442391158815133</v>
+        <v>0.001883982833623082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N5">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O5">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P5">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q5">
-        <v>0.001838858418</v>
+        <v>0.000189146181</v>
       </c>
       <c r="R5">
-        <v>0.016549725762</v>
+        <v>0.001702315629</v>
       </c>
       <c r="S5">
-        <v>0.000182683780191844</v>
+        <v>1.927475679754446E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001826837801918439</v>
+        <v>1.927475679754445E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.465328</v>
       </c>
       <c r="O6">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P6">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q6">
         <v>1.177959264048</v>
@@ -818,10 +818,10 @@
         <v>10.601633376432</v>
       </c>
       <c r="S6">
-        <v>0.1170258945233766</v>
+        <v>0.1200387880521873</v>
       </c>
       <c r="T6">
-        <v>0.1170258945233766</v>
+        <v>0.1200387880521873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.727487</v>
       </c>
       <c r="O7">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P7">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q7">
         <v>0.280224741867</v>
@@ -880,10 +880,10 @@
         <v>2.522022676803</v>
       </c>
       <c r="S7">
-        <v>0.02783929129422907</v>
+        <v>0.0285560285678784</v>
       </c>
       <c r="T7">
-        <v>0.02783929129422907</v>
+        <v>0.0285560285678784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H8">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N8">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O8">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P8">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q8">
-        <v>0.01041320157266666</v>
+        <v>0.001071108732555556</v>
       </c>
       <c r="R8">
-        <v>0.09371881415399998</v>
+        <v>0.009639978593</v>
       </c>
       <c r="S8">
-        <v>0.001034513048189663</v>
+        <v>0.0001091502890229352</v>
       </c>
       <c r="T8">
-        <v>0.001034513048189662</v>
+        <v>0.0001091502890229352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H9">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>11.465328</v>
       </c>
       <c r="O9">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P9">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q9">
         <v>6.670620826949333</v>
@@ -1004,10 +1004,10 @@
         <v>60.03558744254401</v>
       </c>
       <c r="S9">
-        <v>0.6627014983670965</v>
+        <v>0.6797630988282195</v>
       </c>
       <c r="T9">
-        <v>0.6627014983670964</v>
+        <v>0.6797630988282194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H10">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.727487</v>
       </c>
       <c r="O10">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P10">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q10">
         <v>1.586874059550111</v>
@@ -1066,10 +1066,10 @@
         <v>14.281866535951</v>
       </c>
       <c r="S10">
-        <v>0.1576500665028315</v>
+        <v>0.1617088508181959</v>
       </c>
       <c r="T10">
-        <v>0.1576500665028315</v>
+        <v>0.1617088508181958</v>
       </c>
     </row>
   </sheetData>
